--- a/table/item.xlsx
+++ b/table/item.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MScannot206\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F412FB40-67C1-4DE2-9C75-439314899F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFDA2A6-EB4C-4AC0-892C-52A3723303FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="2865" windowWidth="21600" windowHeight="11355" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="4695" yWindow="1935" windowWidth="21600" windowHeight="12735" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Item" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -621,7 +621,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/table/item.xlsx
+++ b/table/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFDA2A6-EB4C-4AC0-892C-52A3723303FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B0CE29-9797-490F-BC1A-EDECF6D74013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4695" yWindow="1935" windowWidth="21600" windowHeight="12735" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>타락한 시그너스 머리 장식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +625,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -662,7 +666,7 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>

--- a/table/item.xlsx
+++ b/table/item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206Server\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE14F19-5608-47A1-9088-D8BFCE809E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD8C976-E6E2-47E2-9CF7-E2D72321C473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="1845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2479" uniqueCount="1847">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7370,6 +7370,14 @@
   </si>
   <si>
     <t>body</t>
+  </si>
+  <si>
+    <t>coat-411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1e00ed180704baca0c41faa6a595491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7850,10 +7858,10 @@
   <dimension ref="A1:E619"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B565" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C607" sqref="C607"/>
+      <selection pane="bottomRight" activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -10438,7 +10446,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
-        <v>512</v>
+        <v>1845</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>518</v>
@@ -10447,7 +10455,7 @@
         <v>482</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>543</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">

--- a/table/item.xlsx
+++ b/table/item.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MScannot206\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206Server\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC9710-2403-4CB8-AC48-AAF0CA0EF58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE774BC-E924-42A8-B1B3-2576B24BB156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="31245" yWindow="1860" windowWidth="21600" windowHeight="13920" activeTab="1" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
-    <sheet name="ItemOption" sheetId="2" r:id="rId2"/>
+    <sheet name="CharacterEquipItem" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -16577,8 +16577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44711A1-2C0D-4C42-8F3F-F467DE3DAB6F}">
   <dimension ref="A1:E619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/table/item.xlsx
+++ b/table/item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969CC561-A433-4D8E-B1D5-60730B5AB06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67B65EA-FC27-4BB8-8C41-50F77FE402FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
@@ -42,21 +42,15 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>USER</author>
+    <author>tc={C676FE18-AFAB-4D59-B6A3-5599CCEF3A9D}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{09A4C117-ACFE-4C33-8E59-91F5B0C997EB}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C676FE18-AFAB-4D59-B6A3-5599CCEF3A9D}">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>Hair : 머리
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    Hair : 머리
 Face : 눈, 코, 입
 Face Acc : 가면
 Cap : 모자
@@ -69,11 +63,11 @@
 Eye Acc : 안경
 Ear : 귀(피부색을 따라감)
 Ear Acc : 귀걸이
-1H Weapon : 한손 무기
-2H Weapon : 두손 무기
-Sub Weapon : 보조 무기(방패, 보조단검)
+onehandweapon : 한손 무기
+twohandweapon : 두손 무기
+subweapon : 보조단검 (보조무기)
+Shield : 방패 (보조무기)
 Skin : 피부색</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -81,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2403">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9067,6 +9061,10 @@
   </si>
   <si>
     <t>Grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9089,14 +9087,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9122,6 +9112,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -9205,28 +9201,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9244,6 +9240,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="승혁 이" id="{9E40405D-BD6F-4E1D-B2BA-4A0E5CDF029D}" userId="a16ef74286df71cc" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9561,15 +9563,40 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C1" dT="2026-02-20T18:43:03.05" personId="{9E40405D-BD6F-4E1D-B2BA-4A0E5CDF029D}" id="{C676FE18-AFAB-4D59-B6A3-5599CCEF3A9D}">
+    <text>Hair : 머리
+Face : 눈, 코, 입
+Face Acc : 가면
+Cap : 모자
+Cape : 망토
+Coat : 상의
+Glove : 장갑
+Long Coat : 한벌옷 (상의+하의)
+Pant : 하의
+Shoes : 신발
+Eye Acc : 안경
+Ear : 귀(피부색을 따라감)
+Ear Acc : 귀걸이
+onehandweapon : 한손 무기
+twohandweapon : 두손 무기
+subweapon : 보조단검 (보조무기)
+Shield : 방패 (보조무기)
+Skin : 피부색</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B977CF-2AE1-4964-9B58-DC74286AD7EB}">
   <dimension ref="A1:G635"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B422" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B529" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E430" sqref="E430"/>
+      <selection pane="bottomRight" activeCell="C546" sqref="C546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -21160,14 +21187,14 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>subweapon-44</v>
+        <f>C545&amp;"-"&amp;B545</f>
+        <v>shield-44</v>
       </c>
       <c r="B545" s="5" t="s">
         <v>2289</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>1771</v>
+        <v>2402</v>
       </c>
       <c r="D545" s="4" t="s">
         <v>1766</v>
@@ -21182,13 +21209,13 @@
     <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="str">
         <f t="shared" si="9"/>
-        <v>subweapon-76</v>
+        <v>shield-76</v>
       </c>
       <c r="B546" s="5" t="s">
         <v>1986</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1771</v>
+        <v>2402</v>
       </c>
       <c r="D546" s="4" t="s">
         <v>1765</v>

--- a/table/item.xlsx
+++ b/table/item.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MScannot206\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\MScannot206\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67B65EA-FC27-4BB8-8C41-50F77FE402FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D566FB2F-5CEF-4A94-947D-FA24951FF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
+    <workbookView xWindow="57480" yWindow="-1740" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{2BE16A6F-FF36-4601-894B-FA43EFA090D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
     <sheet name="CharacterEquipItem" sheetId="2" r:id="rId2"/>
+    <sheet name="CharacterWeapon" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Item!$A$3:$F$3</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3796" uniqueCount="2403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4461" uniqueCount="2507">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9065,6 +9066,351 @@
   </si>
   <si>
     <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onehandedweapon-1017</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1029</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1079</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1120</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1159</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1173</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1227</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1279</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1310</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1411</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1416</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1426</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1453</t>
+  </si>
+  <si>
+    <t>onehandedweapon-1454</t>
+  </si>
+  <si>
+    <t>onehandedweapon-283</t>
+  </si>
+  <si>
+    <t>onehandedweapon-340</t>
+  </si>
+  <si>
+    <t>onehandedweapon-346</t>
+  </si>
+  <si>
+    <t>onehandedweapon-361</t>
+  </si>
+  <si>
+    <t>onehandedweapon-476</t>
+  </si>
+  <si>
+    <t>onehandedweapon-496</t>
+  </si>
+  <si>
+    <t>onehandedweapon-512</t>
+  </si>
+  <si>
+    <t>onehandedweapon-579</t>
+  </si>
+  <si>
+    <t>onehandedweapon-630</t>
+  </si>
+  <si>
+    <t>onehandedweapon-665</t>
+  </si>
+  <si>
+    <t>onehandedweapon-729</t>
+  </si>
+  <si>
+    <t>onehandedweapon-773</t>
+  </si>
+  <si>
+    <t>onehandedweapon-803</t>
+  </si>
+  <si>
+    <t>onehandedweapon-804</t>
+  </si>
+  <si>
+    <t>onehandedweapon-846</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1058</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1086</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1132</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1159</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1160</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1181</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1199</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1201</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1210</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1242</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1346</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1348</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1407</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1442</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1463</t>
+  </si>
+  <si>
+    <t>twohandedweapon-1555</t>
+  </si>
+  <si>
+    <t>twohandedweapon-282</t>
+  </si>
+  <si>
+    <t>twohandedweapon-477</t>
+  </si>
+  <si>
+    <t>twohandedweapon-540</t>
+  </si>
+  <si>
+    <t>twohandedweapon-546</t>
+  </si>
+  <si>
+    <t>twohandedweapon-598</t>
+  </si>
+  <si>
+    <t>twohandedweapon-617</t>
+  </si>
+  <si>
+    <t>twohandedweapon-637</t>
+  </si>
+  <si>
+    <t>twohandedweapon-651</t>
+  </si>
+  <si>
+    <t>twohandedweapon-653</t>
+  </si>
+  <si>
+    <t>twohandedweapon-666</t>
+  </si>
+  <si>
+    <t>twohandedweapon-696</t>
+  </si>
+  <si>
+    <t>twohandedweapon-709</t>
+  </si>
+  <si>
+    <t>twohandedweapon-728</t>
+  </si>
+  <si>
+    <t>twohandedweapon-748</t>
+  </si>
+  <si>
+    <t>twohandedweapon-756</t>
+  </si>
+  <si>
+    <t>twohandedweapon-776</t>
+  </si>
+  <si>
+    <t>twohandedweapon-782</t>
+  </si>
+  <si>
+    <t>twohandedweapon-793</t>
+  </si>
+  <si>
+    <t>twohandedweapon-803</t>
+  </si>
+  <si>
+    <t>twohandedweapon-851</t>
+  </si>
+  <si>
+    <t>twohandedweapon-904</t>
+  </si>
+  <si>
+    <t>twohandedweapon-920</t>
+  </si>
+  <si>
+    <t>stand1</t>
+  </si>
+  <si>
+    <t>stand1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand2</t>
+  </si>
+  <si>
+    <t>stand2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk1</t>
+  </si>
+  <si>
+    <t>walk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk2</t>
+  </si>
+  <si>
+    <t>서핑보드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwingAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StabAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwingFinalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StabFinalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShootFinalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swingO1,swingO2,swingO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shootF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stabO1,stabO2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swingTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swingTF,swingPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stabOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swingT2,swingP1,swingP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swingPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stabT1,stabT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stabTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swingT1,swingT2,swingT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swingOF,swingPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swingO1,swingO2,swingO3,swingT1,swingT2,swingT3,swingP1,swingP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stabO1,stabO2,stabT1,stabT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stabOF,stabTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot1,shoot2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9072,7 +9418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9112,12 +9458,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -9197,7 +9537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9223,6 +9563,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9592,11 +9938,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B977CF-2AE1-4964-9B58-DC74286AD7EB}">
   <dimension ref="A1:G635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B529" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B601" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C546" sqref="C546"/>
+      <selection pane="bottomRight" activeCell="D613" sqref="D613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -22583,7 +22929,7 @@
         <v>1764</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>1703</v>
+        <v>2485</v>
       </c>
       <c r="F611" s="4" t="s">
         <v>1668</v>
@@ -23113,8 +23459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44711A1-2C0D-4C42-8F3F-F467DE3DAB6F}">
   <dimension ref="A1:E619"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView topLeftCell="A546" workbookViewId="0">
+      <selection activeCell="B525" sqref="B525:B555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33651,4 +33997,2188 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDC631-CDBE-4E0C-A983-C4D96728F1DC}">
+  <dimension ref="A1:K73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.875" style="9" customWidth="1"/>
+    <col min="2" max="3" width="21.375" style="9" customWidth="1"/>
+    <col min="4" max="5" width="21" style="9" customWidth="1"/>
+    <col min="6" max="6" width="44.625" customWidth="1"/>
+    <col min="7" max="8" width="33.125" customWidth="1"/>
+    <col min="9" max="10" width="35.75" customWidth="1"/>
+    <col min="11" max="11" width="36.625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>2406</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>2495</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>2496</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>2409</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>2410</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>2412</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>2419</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>2420</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>2491</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>2425</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>2426</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>2428</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>2429</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>2490</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>2479</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>2440</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>2441</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>2443</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>2444</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>2472</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>2446</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>2447</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>2485</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>2449</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>2503</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>2502</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>2504</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>2505</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>2506</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>2451</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>2453</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>2455</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>2457</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>2458</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>2459</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>2460</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>2463</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>2464</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>2466</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>2467</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>2468</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>2478</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>2469</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>2486</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>2470</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>2501</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>2494</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>2493</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>2471</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>2484</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>2473</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>2498</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>